--- a/RUDN/Importance/Varible_reg_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Eastern Asia.xlsx
@@ -14,153 +14,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1728395074605942</v>
+        <v>0.2321428507566452</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03703703731298447</v>
+        <v>0.0982142835855484</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03703703731298447</v>
+        <v>0.0535714291036129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03703703731298447</v>
+        <v>0.0446428582072258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03703703731298447</v>
+        <v>0.0357142873108387</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02469135820865631</v>
+        <v>0.02678571455180645</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -630,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02469135820865631</v>
+        <v>0.01785714365541935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -646,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02469135820865631</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02469135820865631</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -670,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -678,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -686,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -694,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -702,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -710,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -718,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -726,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -734,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -742,7 +760,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -750,7 +768,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -758,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -766,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -774,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -782,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -790,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -798,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -806,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -814,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -822,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -830,7 +848,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -838,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -846,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -854,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -862,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -870,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -878,7 +896,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -886,7 +904,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -894,7 +912,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -902,7 +920,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -910,7 +928,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -918,7 +936,55 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01234567910432816</v>
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.008928571827709675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.008928571827709675</v>
       </c>
     </row>
   </sheetData>
